--- a/assets/CompatibilityTests.xlsx
+++ b/assets/CompatibilityTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\kvpbase\less3\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB70484-C114-421F-B327-5F99CE55EC61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D74D4-0325-43C0-9E21-9D0427DDC825}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{69935E37-BC4E-4EBD-9279-3653148FE47F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t>CloudBerry</t>
   </si>
@@ -95,15 +95,9 @@
     <t>OK</t>
   </si>
   <si>
-    <t>bug</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Does not support versions yet</t>
-  </si>
-  <si>
     <t>DELETE or PUT with an empty list</t>
   </si>
   <si>
@@ -123,12 +117,6 @@
   </si>
   <si>
     <t>Read (GetVersions)</t>
-  </si>
-  <si>
-    <t>Test, add to S3Client</t>
-  </si>
-  <si>
-    <t>Test new query</t>
   </si>
 </sst>
 </file>
@@ -160,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +164,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,9 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,20 +718,20 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="1.109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="1.109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="1.109375" style="24" customWidth="1"/>
     <col min="8" max="8" width="95" customWidth="1"/>
-    <col min="9" max="9" width="1.21875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="1.21875" style="25" customWidth="1"/>
     <col min="10" max="10" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -760,13 +739,13 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="23"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="22"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
@@ -776,33 +755,33 @@
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="18"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="22"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="22"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="19" t="s">
         <v>20</v>
       </c>
@@ -812,97 +791,97 @@
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="19"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="22"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="18"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="22"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="21"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="19" t="s">
         <v>20</v>
       </c>
@@ -912,150 +891,154 @@
       <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="G14" s="21"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="22"/>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="21"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="19"/>
       <c r="E17" s="2"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="18"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="19" t="s">
         <v>20</v>
       </c>
@@ -1065,35 +1048,35 @@
       <c r="F19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="30"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="22"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="30"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="19" t="s">
         <v>20</v>
       </c>
@@ -1103,73 +1086,73 @@
       <c r="F21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="22"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="30"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="G22" s="21"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="30"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="22"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="30"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="30"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="19" t="s">
         <v>20</v>
       </c>
@@ -1179,82 +1162,80 @@
       <c r="F25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="30"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="30"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
-      <c r="C28" s="22"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="13"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="15"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
